--- a/fos_ems0.xlsx
+++ b/fos_ems0.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="emissions" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,21 +56,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -577,10 +577,10 @@
         <v>13516</v>
       </c>
       <c r="B9" t="n">
-        <v>32.82198245779887</v>
+        <v>32.82198245779886</v>
       </c>
       <c r="C9" t="n">
-        <v>33.85927589438401</v>
+        <v>33.85927589438402</v>
       </c>
       <c r="D9" t="n">
         <v>44.69437629355154</v>
@@ -616,10 +616,10 @@
         <v>48.14743271351203</v>
       </c>
       <c r="F10" t="n">
-        <v>67.65430565209557</v>
+        <v>67.65430565209556</v>
       </c>
       <c r="G10" t="n">
-        <v>77.02789029114246</v>
+        <v>77.02789029114243</v>
       </c>
       <c r="H10" t="n">
         <v>72.88624370872002</v>
@@ -639,7 +639,7 @@
         <v>35.09683824316257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.30028557545092</v>
+        <v>46.30028557545091</v>
       </c>
       <c r="E11" t="n">
         <v>49.13141097841622</v>
@@ -662,10 +662,10 @@
         <v>14611</v>
       </c>
       <c r="B12" t="n">
-        <v>34.80179673813893</v>
+        <v>34.80179673813892</v>
       </c>
       <c r="C12" t="n">
-        <v>35.79611978795477</v>
+        <v>35.79611978795476</v>
       </c>
       <c r="D12" t="n">
         <v>47.03011383487913</v>
@@ -680,7 +680,7 @@
         <v>78.77366710127971</v>
       </c>
       <c r="H12" t="n">
-        <v>75.61614583865318</v>
+        <v>75.61614583865317</v>
       </c>
       <c r="I12" t="n">
         <v>120.1546130626041</v>
@@ -700,16 +700,16 @@
         <v>47.75862933389715</v>
       </c>
       <c r="E13" t="n">
-        <v>51.04230117221734</v>
+        <v>51.04230117221732</v>
       </c>
       <c r="F13" t="n">
-        <v>70.89188235116009</v>
+        <v>70.89188235116008</v>
       </c>
       <c r="G13" t="n">
-        <v>79.57360930010067</v>
+        <v>79.57360930010069</v>
       </c>
       <c r="H13" t="n">
-        <v>76.91204692760472</v>
+        <v>76.91204692760471</v>
       </c>
       <c r="I13" t="n">
         <v>122.0984915323847</v>
@@ -723,7 +723,7 @@
         <v>35.99860162917797</v>
       </c>
       <c r="C14" t="n">
-        <v>36.95875808258672</v>
+        <v>36.95875808258673</v>
       </c>
       <c r="D14" t="n">
         <v>48.49775342229131</v>
@@ -749,7 +749,7 @@
         <v>15707</v>
       </c>
       <c r="B15" t="n">
-        <v>36.50148520755894</v>
+        <v>36.50148520755893</v>
       </c>
       <c r="C15" t="n">
         <v>37.36245053889242</v>
@@ -761,7 +761,7 @@
         <v>53.02766692166463</v>
       </c>
       <c r="F15" t="n">
-        <v>72.58490163102172</v>
+        <v>72.58490163102171</v>
       </c>
       <c r="G15" t="n">
         <v>81.05858013765466</v>
@@ -781,22 +781,22 @@
         <v>36.91178979044619</v>
       </c>
       <c r="C16" t="n">
-        <v>37.62852456514999</v>
+        <v>37.62852456514998</v>
       </c>
       <c r="D16" t="n">
-        <v>49.92308748756034</v>
+        <v>49.92308748756035</v>
       </c>
       <c r="E16" t="n">
         <v>54.09301788730264</v>
       </c>
       <c r="F16" t="n">
-        <v>73.17881776953558</v>
+        <v>73.1788177695356</v>
       </c>
       <c r="G16" t="n">
         <v>81.739753857347</v>
       </c>
       <c r="H16" t="n">
-        <v>80.04255546475483</v>
+        <v>80.04255546475481</v>
       </c>
       <c r="I16" t="n">
         <v>127.4803777823702</v>
@@ -807,7 +807,7 @@
         <v>16438</v>
       </c>
       <c r="B17" t="n">
-        <v>37.22114065630647</v>
+        <v>37.22114065630646</v>
       </c>
       <c r="C17" t="n">
         <v>37.79885511139452</v>
@@ -825,7 +825,7 @@
         <v>82.38304956064799</v>
       </c>
       <c r="H17" t="n">
-        <v>80.84522348676292</v>
+        <v>80.84522348676289</v>
       </c>
       <c r="I17" t="n">
         <v>129.1975257191002</v>
@@ -894,7 +894,7 @@
         <v>17533</v>
       </c>
       <c r="B20" t="n">
-        <v>37.52737016382947</v>
+        <v>37.52737016382946</v>
       </c>
       <c r="C20" t="n">
         <v>38.41495719849522</v>
@@ -903,7 +903,7 @@
         <v>51.78290179718255</v>
       </c>
       <c r="E20" t="n">
-        <v>58.94547121074626</v>
+        <v>58.94547121074627</v>
       </c>
       <c r="F20" t="n">
         <v>74.95352762817591</v>
@@ -929,13 +929,13 @@
         <v>38.59657692640114</v>
       </c>
       <c r="D21" t="n">
-        <v>52.12263405378825</v>
+        <v>52.12263405378824</v>
       </c>
       <c r="E21" t="n">
         <v>60.31473536749989</v>
       </c>
       <c r="F21" t="n">
-        <v>75.39927243991089</v>
+        <v>75.39927243991092</v>
       </c>
       <c r="G21" t="n">
         <v>83.84225119553621</v>
@@ -984,13 +984,13 @@
         <v>37.67635847479533</v>
       </c>
       <c r="C23" t="n">
-        <v>38.77902011649653</v>
+        <v>38.77902011649652</v>
       </c>
       <c r="D23" t="n">
-        <v>52.90974838539716</v>
+        <v>52.90974838539715</v>
       </c>
       <c r="E23" t="n">
-        <v>63.23624939788551</v>
+        <v>63.2362493978855</v>
       </c>
       <c r="F23" t="n">
         <v>76.05915066555887</v>
@@ -999,7 +999,7 @@
         <v>84.18775013500036</v>
       </c>
       <c r="H23" t="n">
-        <v>84.4992385932436</v>
+        <v>84.49923859324358</v>
       </c>
       <c r="I23" t="n">
         <v>138.5159492725782</v>
@@ -1010,7 +1010,7 @@
         <v>18994</v>
       </c>
       <c r="B24" t="n">
-        <v>37.81189833162209</v>
+        <v>37.8118983316221</v>
       </c>
       <c r="C24" t="n">
         <v>38.92788520809121</v>
@@ -1019,19 +1019,19 @@
         <v>53.40544316884278</v>
       </c>
       <c r="E24" t="n">
-        <v>64.78006751833182</v>
+        <v>64.7800675183318</v>
       </c>
       <c r="F24" t="n">
         <v>76.38191761427106</v>
       </c>
       <c r="G24" t="n">
-        <v>84.37765164971592</v>
+        <v>84.3776516497159</v>
       </c>
       <c r="H24" t="n">
-        <v>84.99117369193216</v>
+        <v>84.99117369193218</v>
       </c>
       <c r="I24" t="n">
-        <v>139.8760879048507</v>
+        <v>139.8760879048508</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1039,7 @@
         <v>19360</v>
       </c>
       <c r="B25" t="n">
-        <v>38.0389991096868</v>
+        <v>38.03899910968678</v>
       </c>
       <c r="C25" t="n">
         <v>39.14900250938684</v>
@@ -1048,7 +1048,7 @@
         <v>53.97346012340923</v>
       </c>
       <c r="E25" t="n">
-        <v>66.39362361315227</v>
+        <v>66.39362361315229</v>
       </c>
       <c r="F25" t="n">
         <v>76.78424409937605</v>
@@ -1077,7 +1077,7 @@
         <v>54.60260572820021</v>
       </c>
       <c r="E26" t="n">
-        <v>68.10464882715355</v>
+        <v>68.10464882715357</v>
       </c>
       <c r="F26" t="n">
         <v>77.30282102706772</v>
@@ -1100,7 +1100,7 @@
         <v>38.88190476152101</v>
       </c>
       <c r="C27" t="n">
-        <v>39.50382606612549</v>
+        <v>39.5038260661255</v>
       </c>
       <c r="D27" t="n">
         <v>55.33533845269969</v>
@@ -1109,10 +1109,10 @@
         <v>69.93085304231954</v>
       </c>
       <c r="F27" t="n">
-        <v>77.94371718753685</v>
+        <v>77.94371718753683</v>
       </c>
       <c r="G27" t="n">
-        <v>85.36942532980649</v>
+        <v>85.36942532980646</v>
       </c>
       <c r="H27" t="n">
         <v>86.56975937553013</v>
@@ -1132,10 +1132,10 @@
         <v>39.84119126948903</v>
       </c>
       <c r="D28" t="n">
-        <v>56.21298000629606</v>
+        <v>56.21298000629607</v>
       </c>
       <c r="E28" t="n">
-        <v>71.86984059198457</v>
+        <v>71.86984059198458</v>
       </c>
       <c r="F28" t="n">
         <v>78.7063058958378</v>
@@ -1144,7 +1144,7 @@
         <v>85.844156270586</v>
       </c>
       <c r="H28" t="n">
-        <v>87.32722751733721</v>
+        <v>87.32722751733722</v>
       </c>
       <c r="I28" t="n">
         <v>145.5580388958915</v>
@@ -1161,16 +1161,16 @@
         <v>40.3655048652161</v>
       </c>
       <c r="D29" t="n">
-        <v>57.21055734683784</v>
+        <v>57.21055734683785</v>
       </c>
       <c r="E29" t="n">
         <v>73.90415585373236</v>
       </c>
       <c r="F29" t="n">
-        <v>79.54219013258802</v>
+        <v>79.54219013258799</v>
       </c>
       <c r="G29" t="n">
-        <v>86.39450871846195</v>
+        <v>86.39450871846196</v>
       </c>
       <c r="H29" t="n">
         <v>88.32601475396153</v>
@@ -1199,7 +1199,7 @@
         <v>80.45873341459627</v>
       </c>
       <c r="G30" t="n">
-        <v>87.02394018827842</v>
+        <v>87.02394018827843</v>
       </c>
       <c r="H30" t="n">
         <v>89.52678785799826</v>
@@ -1242,10 +1242,10 @@
         <v>21916</v>
       </c>
       <c r="B32" t="n">
-        <v>44.3482915904443</v>
+        <v>44.34829159044431</v>
       </c>
       <c r="C32" t="n">
-        <v>42.93734656213775</v>
+        <v>42.93734656213774</v>
       </c>
       <c r="D32" t="n">
         <v>60.7579185952313</v>
@@ -1283,7 +1283,7 @@
         <v>82.86250928964139</v>
       </c>
       <c r="F33" t="n">
-        <v>84.00345450779905</v>
+        <v>84.00345450779908</v>
       </c>
       <c r="G33" t="n">
         <v>89.38050807620178</v>
@@ -1303,16 +1303,16 @@
         <v>48.16189752627243</v>
       </c>
       <c r="C34" t="n">
-        <v>45.15988373402894</v>
+        <v>45.15988373402893</v>
       </c>
       <c r="D34" t="n">
         <v>63.85050448783349</v>
       </c>
       <c r="E34" t="n">
-        <v>85.27361512088578</v>
+        <v>85.27361512088576</v>
       </c>
       <c r="F34" t="n">
-        <v>85.3345236433977</v>
+        <v>85.33452364339772</v>
       </c>
       <c r="G34" t="n">
         <v>90.45677139944905</v>
@@ -1329,19 +1329,19 @@
         <v>23012</v>
       </c>
       <c r="B35" t="n">
-        <v>50.4264675401</v>
+        <v>50.42646754010001</v>
       </c>
       <c r="C35" t="n">
         <v>46.51437406529353</v>
       </c>
       <c r="D35" t="n">
-        <v>65.6489469081458</v>
+        <v>65.64894690814582</v>
       </c>
       <c r="E35" t="n">
         <v>87.73128943315089</v>
       </c>
       <c r="F35" t="n">
-        <v>86.78436647888157</v>
+        <v>86.78436647888155</v>
       </c>
       <c r="G35" t="n">
         <v>91.73337982922077</v>
@@ -1367,7 +1367,7 @@
         <v>67.64380922456346</v>
       </c>
       <c r="E36" t="n">
-        <v>90.29729861221692</v>
+        <v>90.29729861221689</v>
       </c>
       <c r="F36" t="n">
         <v>88.4225759039622</v>
@@ -1393,7 +1393,7 @@
         <v>49.89443479228159</v>
       </c>
       <c r="D37" t="n">
-        <v>69.83424264327066</v>
+        <v>69.83424264327064</v>
       </c>
       <c r="E37" t="n">
         <v>93.07894431268866</v>
@@ -1402,7 +1402,7 @@
         <v>90.30799086107289</v>
       </c>
       <c r="G37" t="n">
-        <v>94.69980600772102</v>
+        <v>94.69980600772101</v>
       </c>
       <c r="H37" t="n">
         <v>100.6397257356546</v>
@@ -1422,7 +1422,7 @@
         <v>52.14427272894969</v>
       </c>
       <c r="D38" t="n">
-        <v>72.22735697005518</v>
+        <v>72.2273569700552</v>
       </c>
       <c r="E38" t="n">
         <v>96.12857661905576</v>
@@ -1434,10 +1434,10 @@
         <v>96.5084399219373</v>
       </c>
       <c r="H38" t="n">
-        <v>103.0011686312129</v>
+        <v>103.001168631213</v>
       </c>
       <c r="I38" t="n">
-        <v>169.7050934420039</v>
+        <v>169.705093442004</v>
       </c>
     </row>
     <row r="39">
@@ -1532,13 +1532,13 @@
         <v>25569</v>
       </c>
       <c r="B42" t="n">
-        <v>74.27639962813575</v>
+        <v>74.27639962813578</v>
       </c>
       <c r="C42" t="n">
         <v>63.35128702571912</v>
       </c>
       <c r="D42" t="n">
-        <v>83.52994637575915</v>
+        <v>83.52994637575917</v>
       </c>
       <c r="E42" t="n">
         <v>109.7556292609827</v>
@@ -1564,7 +1564,7 @@
         <v>78.20743355905853</v>
       </c>
       <c r="C43" t="n">
-        <v>66.52790635227812</v>
+        <v>66.52790635227814</v>
       </c>
       <c r="D43" t="n">
         <v>86.55275806496775</v>
@@ -1590,13 +1590,13 @@
         <v>26299</v>
       </c>
       <c r="B44" t="n">
-        <v>82.53737918568156</v>
+        <v>82.53737918568154</v>
       </c>
       <c r="C44" t="n">
         <v>70.06047649350495</v>
       </c>
       <c r="D44" t="n">
-        <v>89.6951039365689</v>
+        <v>89.69510393656888</v>
       </c>
       <c r="E44" t="n">
         <v>117.0246781216794</v>
@@ -1608,7 +1608,7 @@
         <v>110.9429273945716</v>
       </c>
       <c r="H44" t="n">
-        <v>121.4975062102212</v>
+        <v>121.4975062102211</v>
       </c>
       <c r="I44" t="n">
         <v>194.1730191278458</v>
@@ -1637,7 +1637,7 @@
         <v>113.7716913790645</v>
       </c>
       <c r="H45" t="n">
-        <v>125.0980373182638</v>
+        <v>125.0980373182639</v>
       </c>
       <c r="I45" t="n">
         <v>198.6601770718521</v>
@@ -1654,7 +1654,7 @@
         <v>77.55386081768974</v>
       </c>
       <c r="D46" t="n">
-        <v>96.60619559513009</v>
+        <v>96.60619559513007</v>
       </c>
       <c r="E46" t="n">
         <v>125.2404424139958</v>
@@ -1747,7 +1747,7 @@
         <v>139.0040875091597</v>
       </c>
       <c r="F49" t="n">
-        <v>127.6707457349223</v>
+        <v>127.6707457349224</v>
       </c>
       <c r="G49" t="n">
         <v>126.5977026134849</v>
@@ -1872,7 +1872,7 @@
         <v>159.1274206291834</v>
       </c>
       <c r="I53" t="n">
-        <v>238.8604993668781</v>
+        <v>238.8604993668782</v>
       </c>
     </row>
     <row r="54">
@@ -1895,10 +1895,10 @@
         <v>149.0462810482933</v>
       </c>
       <c r="G54" t="n">
-        <v>146.2401945625717</v>
+        <v>146.2401945625718</v>
       </c>
       <c r="H54" t="n">
-        <v>163.540652055997</v>
+        <v>163.5406520559969</v>
       </c>
       <c r="I54" t="n">
         <v>243.9235283461402</v>
@@ -2005,10 +2005,10 @@
         <v>149.3893407911066</v>
       </c>
       <c r="E58" t="n">
-        <v>182.537116177045</v>
+        <v>182.5371161770449</v>
       </c>
       <c r="F58" t="n">
-        <v>167.1916278920189</v>
+        <v>167.191627892019</v>
       </c>
       <c r="G58" t="n">
         <v>163.5564405809531</v>
@@ -2017,7 +2017,7 @@
         <v>182.7509923980041</v>
       </c>
       <c r="I58" t="n">
-        <v>265.6833861510967</v>
+        <v>265.6833861510966</v>
       </c>
     </row>
     <row r="59">
@@ -2028,7 +2028,7 @@
         <v>167.905027292799</v>
       </c>
       <c r="C59" t="n">
-        <v>139.2037226477907</v>
+        <v>139.2037226477906</v>
       </c>
       <c r="D59" t="n">
         <v>154.3971930588913</v>
@@ -2040,7 +2040,7 @@
         <v>172.1316959270966</v>
       </c>
       <c r="G59" t="n">
-        <v>168.1458833740789</v>
+        <v>168.1458833740788</v>
       </c>
       <c r="H59" t="n">
         <v>187.7159420928291</v>
@@ -2086,7 +2086,7 @@
         <v>180.4480829186881</v>
       </c>
       <c r="C61" t="n">
-        <v>149.3400703490625</v>
+        <v>149.3400703490624</v>
       </c>
       <c r="D61" t="n">
         <v>164.2243280257478</v>
@@ -2115,7 +2115,7 @@
         <v>187.0103019971016</v>
       </c>
       <c r="C62" t="n">
-        <v>154.7349994344201</v>
+        <v>154.73499943442</v>
       </c>
       <c r="D62" t="n">
         <v>169.264947672278</v>
@@ -2147,7 +2147,7 @@
         <v>160.2619316229452</v>
       </c>
       <c r="D63" t="n">
-        <v>174.4776019100616</v>
+        <v>174.4776019100615</v>
       </c>
       <c r="E63" t="n">
         <v>209.6229117752027</v>
@@ -2176,13 +2176,13 @@
         <v>165.7706281132713</v>
       </c>
       <c r="D64" t="n">
-        <v>179.7278118965762</v>
+        <v>179.7278118965763</v>
       </c>
       <c r="E64" t="n">
         <v>214.8457869820577</v>
       </c>
       <c r="F64" t="n">
-        <v>197.6263049753661</v>
+        <v>197.626304975366</v>
       </c>
       <c r="G64" t="n">
         <v>191.7557575536932</v>
@@ -2217,7 +2217,7 @@
         <v>196.7469264938901</v>
       </c>
       <c r="H65" t="n">
-        <v>219.5835400435254</v>
+        <v>219.5835400435255</v>
       </c>
       <c r="I65" t="n">
         <v>306.8825666793053</v>
@@ -2243,7 +2243,7 @@
         <v>208.0237660259856</v>
       </c>
       <c r="G66" t="n">
-        <v>201.7492379556748</v>
+        <v>201.7492379556747</v>
       </c>
       <c r="H66" t="n">
         <v>225.3822241395312</v>
@@ -2272,7 +2272,7 @@
         <v>213.6338469950317</v>
       </c>
       <c r="G67" t="n">
-        <v>206.7169073077259</v>
+        <v>206.7169073077258</v>
       </c>
       <c r="H67" t="n">
         <v>231.2277735311577</v>
@@ -2344,7 +2344,7 @@
         <v>35796</v>
       </c>
       <c r="B70" t="n">
-        <v>242.1958691537155</v>
+        <v>242.1958691537156</v>
       </c>
       <c r="C70" t="n">
         <v>199.8889114297776</v>
@@ -2373,13 +2373,13 @@
         <v>36161</v>
       </c>
       <c r="B71" t="n">
-        <v>249.1621397458876</v>
+        <v>249.1621397458877</v>
       </c>
       <c r="C71" t="n">
         <v>205.7369041433475</v>
       </c>
       <c r="D71" t="n">
-        <v>218.8447501288927</v>
+        <v>218.8447501288926</v>
       </c>
       <c r="E71" t="n">
         <v>255.852454702376</v>
@@ -2388,7 +2388,7 @@
         <v>235.8093474567496</v>
       </c>
       <c r="G71" t="n">
-        <v>227.0353505297136</v>
+        <v>227.0353505297137</v>
       </c>
       <c r="H71" t="n">
         <v>255.4505776846011</v>
@@ -2411,7 +2411,7 @@
         <v>224.865800293802</v>
       </c>
       <c r="E72" t="n">
-        <v>261.8575099228353</v>
+        <v>261.8575099228354</v>
       </c>
       <c r="F72" t="n">
         <v>241.0994039720278</v>
@@ -2423,7 +2423,7 @@
         <v>261.6052253708526</v>
       </c>
       <c r="I72" t="n">
-        <v>353.2846388792332</v>
+        <v>353.2846388792331</v>
       </c>
     </row>
     <row r="73">
@@ -2431,7 +2431,7 @@
         <v>36892</v>
       </c>
       <c r="B73" t="n">
-        <v>263.1064035904835</v>
+        <v>263.1064035904836</v>
       </c>
       <c r="C73" t="n">
         <v>218.4501359675554</v>
@@ -2443,7 +2443,7 @@
         <v>267.8741453321023</v>
       </c>
       <c r="F73" t="n">
-        <v>246.9195126794862</v>
+        <v>246.9195126794861</v>
       </c>
       <c r="G73" t="n">
         <v>238.2134790271453</v>
@@ -2460,7 +2460,7 @@
         <v>37257</v>
       </c>
       <c r="B74" t="n">
-        <v>270.3074063327083</v>
+        <v>270.3074063327084</v>
       </c>
       <c r="C74" t="n">
         <v>224.8882873364062</v>
@@ -2469,7 +2469,7 @@
         <v>237.7744637657422</v>
       </c>
       <c r="E74" t="n">
-        <v>273.9711467725956</v>
+        <v>273.9711467725955</v>
       </c>
       <c r="F74" t="n">
         <v>252.7996419851681</v>
@@ -2495,7 +2495,7 @@
         <v>231.6582966695865</v>
       </c>
       <c r="D75" t="n">
-        <v>244.5788940954954</v>
+        <v>244.5788940954953</v>
       </c>
       <c r="E75" t="n">
         <v>280.1798683820279</v>
@@ -2510,7 +2510,7 @@
         <v>280.7079144890872</v>
       </c>
       <c r="I75" t="n">
-        <v>374.1405203090946</v>
+        <v>374.1405203090947</v>
       </c>
     </row>
     <row r="76">
@@ -2518,13 +2518,13 @@
         <v>37987</v>
       </c>
       <c r="B76" t="n">
-        <v>285.4606171124423</v>
+        <v>285.4606171124424</v>
       </c>
       <c r="C76" t="n">
         <v>238.3534818737033</v>
       </c>
       <c r="D76" t="n">
-        <v>251.5134436624791</v>
+        <v>251.513443662479</v>
       </c>
       <c r="E76" t="n">
         <v>286.5516813898952</v>
@@ -2553,13 +2553,13 @@
         <v>244.855920724857</v>
       </c>
       <c r="D77" t="n">
-        <v>258.377710460034</v>
+        <v>258.3777104600339</v>
       </c>
       <c r="E77" t="n">
         <v>293.1569177712668</v>
       </c>
       <c r="F77" t="n">
-        <v>270.4300631393293</v>
+        <v>270.4300631393294</v>
       </c>
       <c r="G77" t="n">
         <v>261.5114642190339</v>
@@ -2568,7 +2568,7 @@
         <v>294.2468648643571</v>
       </c>
       <c r="I77" t="n">
-        <v>388.9884186189232</v>
+        <v>388.9884186189233</v>
       </c>
     </row>
     <row r="78">
@@ -2579,7 +2579,7 @@
         <v>300.7826985148921</v>
       </c>
       <c r="C78" t="n">
-        <v>251.6214816586017</v>
+        <v>251.6214816586016</v>
       </c>
       <c r="D78" t="n">
         <v>265.1206637788933</v>
@@ -2605,7 +2605,7 @@
         <v>39083</v>
       </c>
       <c r="B79" t="n">
-        <v>308.4226110674655</v>
+        <v>308.4226110674657</v>
       </c>
       <c r="C79" t="n">
         <v>258.5510887384085</v>
@@ -2663,16 +2663,16 @@
         <v>39814</v>
       </c>
       <c r="B81" t="n">
-        <v>323.6796647721114</v>
+        <v>323.6796647721109</v>
       </c>
       <c r="C81" t="n">
-        <v>272.4826072445729</v>
+        <v>272.482607244573</v>
       </c>
       <c r="D81" t="n">
-        <v>285.2122701055011</v>
+        <v>285.212270105501</v>
       </c>
       <c r="E81" t="n">
-        <v>321.4564984804454</v>
+        <v>321.4564984804455</v>
       </c>
       <c r="F81" t="n">
         <v>296.2615206572249</v>
@@ -2681,7 +2681,7 @@
         <v>286.2251376259043</v>
       </c>
       <c r="H81" t="n">
-        <v>322.887748750862</v>
+        <v>322.8877487508619</v>
       </c>
       <c r="I81" t="n">
         <v>418.760859362646</v>
@@ -2692,28 +2692,28 @@
         <v>40179</v>
       </c>
       <c r="B82" t="n">
-        <v>331.2671117713592</v>
+        <v>331.2671117713582</v>
       </c>
       <c r="C82" t="n">
-        <v>279.4473544573441</v>
+        <v>279.4473544573444</v>
       </c>
       <c r="D82" t="n">
-        <v>291.8269569899239</v>
+        <v>291.8269569899236</v>
       </c>
       <c r="E82" t="n">
-        <v>328.7004134792885</v>
+        <v>328.7004134792887</v>
       </c>
       <c r="F82" t="n">
         <v>302.5780314252934</v>
       </c>
       <c r="G82" t="n">
-        <v>292.3174879265537</v>
+        <v>292.3174879265536</v>
       </c>
       <c r="H82" t="n">
-        <v>330.6174992293961</v>
+        <v>330.6174992293958</v>
       </c>
       <c r="I82" t="n">
-        <v>425.7407064132076</v>
+        <v>425.7407064132075</v>
       </c>
     </row>
     <row r="83">
@@ -2721,28 +2721,28 @@
         <v>40544</v>
       </c>
       <c r="B83" t="n">
-        <v>338.834148002692</v>
+        <v>338.8341480026904</v>
       </c>
       <c r="C83" t="n">
-        <v>286.4177745175089</v>
+        <v>286.4177745175094</v>
       </c>
       <c r="D83" t="n">
-        <v>298.4025692253231</v>
+        <v>298.4025692253225</v>
       </c>
       <c r="E83" t="n">
-        <v>335.9937534185174</v>
+        <v>335.9937534185173</v>
       </c>
       <c r="F83" t="n">
-        <v>308.8031147912425</v>
+        <v>308.8031147912424</v>
       </c>
       <c r="G83" t="n">
         <v>298.3720292466946</v>
       </c>
       <c r="H83" t="n">
-        <v>338.5926645720838</v>
+        <v>338.5926645720833</v>
       </c>
       <c r="I83" t="n">
-        <v>432.5155941672165</v>
+        <v>432.515594167216</v>
       </c>
     </row>
     <row r="84">
@@ -2750,28 +2750,28 @@
         <v>40909</v>
       </c>
       <c r="B84" t="n">
-        <v>346.3807734661113</v>
+        <v>346.3807734661086</v>
       </c>
       <c r="C84" t="n">
-        <v>293.393867425068</v>
+        <v>293.3938674250684</v>
       </c>
       <c r="D84" t="n">
-        <v>304.9391068116993</v>
+        <v>304.9391068116986</v>
       </c>
       <c r="E84" t="n">
-        <v>343.3365182981333</v>
+        <v>343.3365182981331</v>
       </c>
       <c r="F84" t="n">
-        <v>314.9367707550732</v>
+        <v>314.9367707550725</v>
       </c>
       <c r="G84" t="n">
-        <v>304.3887615863287</v>
+        <v>304.3887615863283</v>
       </c>
       <c r="H84" t="n">
-        <v>346.8132447789271</v>
+        <v>346.813244778926</v>
       </c>
       <c r="I84" t="n">
-        <v>439.0855226246731</v>
+        <v>439.0855226246728</v>
       </c>
     </row>
     <row r="85">
@@ -2779,28 +2779,28 @@
         <v>41275</v>
       </c>
       <c r="B85" t="n">
-        <v>353.9275798913468</v>
+        <v>353.9275798913422</v>
       </c>
       <c r="C85" t="n">
-        <v>300.3947690976911</v>
+        <v>300.3947690976919</v>
       </c>
       <c r="D85" t="n">
-        <v>311.4543173438087</v>
+        <v>311.4543173438077</v>
       </c>
       <c r="E85" t="n">
-        <v>350.7490285838767</v>
+        <v>350.7490285838766</v>
       </c>
       <c r="F85" t="n">
-        <v>320.9954277814886</v>
+        <v>320.995427781489</v>
       </c>
       <c r="G85" t="n">
-        <v>310.3840136223744</v>
+        <v>310.384013622375</v>
       </c>
       <c r="H85" t="n">
-        <v>355.3027714627679</v>
+        <v>355.3027714627665</v>
       </c>
       <c r="I85" t="n">
-        <v>445.4676485218697</v>
+        <v>445.46764852187</v>
       </c>
     </row>
     <row r="86">
@@ -2808,28 +2808,28 @@
         <v>41640</v>
       </c>
       <c r="B86" t="n">
-        <v>361.4333278990234</v>
+        <v>361.4333278990175</v>
       </c>
       <c r="C86" t="n">
-        <v>307.3822232420835</v>
+        <v>307.3822232420843</v>
       </c>
       <c r="D86" t="n">
-        <v>317.9125985783039</v>
+        <v>317.9125985783026</v>
       </c>
       <c r="E86" t="n">
-        <v>358.1907787550581</v>
+        <v>358.190778755058</v>
       </c>
       <c r="F86" t="n">
-        <v>326.9459784550472</v>
+        <v>326.9459784550464</v>
       </c>
       <c r="G86" t="n">
-        <v>316.325024414743</v>
+        <v>316.3250244147426</v>
       </c>
       <c r="H86" t="n">
-        <v>364.0148537674086</v>
+        <v>364.0148537674066</v>
       </c>
       <c r="I86" t="n">
-        <v>451.6270968539029</v>
+        <v>451.627096853901</v>
       </c>
     </row>
     <row r="87">
@@ -2837,31 +2837,31 @@
         <v>42005</v>
       </c>
       <c r="B87" t="n">
-        <v>368.9186651387899</v>
+        <v>368.9186651387815</v>
       </c>
       <c r="C87" t="n">
-        <v>314.3753502338714</v>
+        <v>314.375350233874</v>
       </c>
       <c r="D87" t="n">
-        <v>324.3318051637816</v>
+        <v>324.331805163779</v>
       </c>
       <c r="E87" t="n">
-        <v>365.6819538666296</v>
+        <v>365.6819538666314</v>
       </c>
       <c r="F87" t="n">
-        <v>332.8051017264879</v>
+        <v>332.8051017264867</v>
       </c>
       <c r="G87" t="n">
-        <v>322.2282262266071</v>
+        <v>322.2282262266077</v>
       </c>
       <c r="H87" t="n">
-        <v>372.9723509362084</v>
+        <v>372.9723509362063</v>
       </c>
       <c r="I87" t="n">
-        <v>457.5815858893857</v>
+        <v>457.5815858893863</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>